--- a/CE07SHSP/Omaha_Cal_Info_CE07SHSP_00002.xlsx
+++ b/CE07SHSP/Omaha_Cal_Info_CE07SHSP_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CE07SHSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$G$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!$F$5:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="105">
   <si>
     <t>Ref Des</t>
   </si>
@@ -331,37 +336,46 @@
     <t>124° 33.8916'W</t>
   </si>
   <si>
-    <t>87 m</t>
-  </si>
-  <si>
     <t>Elakha</t>
-  </si>
-  <si>
-    <t>CE07SHSP-SP001-02-DOSTAJ000</t>
   </si>
   <si>
     <t>CE07SHSP-SP001-04-OPTAAJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-05-VELPTJ000</t>
+    <t>CE07SHSP-SP001-00-SPPENG000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-06-NUTNRJ000</t>
+    <t>CE07SHSP-SP001-01-DOSTAJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-07-SPKIRJ000</t>
+    <t>CE07SHSP-SP001-02-VELPTJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-08-FLORTJ000</t>
+    <t>CE07SHSP-SP001-05-NUTNRJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-09-CTDPFJ000</t>
+    <t>CE07SHSP-SP001-06-SPKIRJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-10-PARADJ000</t>
+    <t>CE07SHSP-SP001-07-FLORTJ000</t>
   </si>
   <si>
-    <t>CE07SHSP-SP001-00-SPPENG000</t>
+    <t>CE07SHSP-SP001-08-CTDPFJ000</t>
+  </si>
+  <si>
+    <t>CE07SHSP-SP001-09-PARADJ000</t>
+  </si>
+  <si>
+    <t>CE07SHSP-SP001-01-DOSTAJ001</t>
+  </si>
+  <si>
+    <t>CE07SHSP-SP001-01-DOSTAJ002</t>
+  </si>
+  <si>
+    <t>CE07SHSP-SP001-01-DOSTAJ003</t>
+  </si>
+  <si>
+    <t>CE07SHSP-SP001-02-VELPTJ001</t>
   </si>
 </sst>
 </file>
@@ -369,11 +383,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -736,14 +750,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1271,7 +1285,7 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,10 +1304,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1352,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1360,7 +1374,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1930,7 +1944,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2275,27 +2289,27 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>87</v>
       </c>
@@ -2355,11 +2369,11 @@
       <c r="H2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="39">
+        <v>87</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>91</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>92</v>
       </c>
       <c r="K2" s="39"/>
       <c r="L2" s="8">
@@ -2371,97 +2385,93 @@
         <v>-124.56486</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
-      <c r="K7" s="48">
-        <v>46.984319999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="9" customFormat="1">
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
-      <c r="K8" s="48">
-        <v>-124.56486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="9" customFormat="1">
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1">
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="3:6" s="9" customFormat="1">
+    <row r="17" spans="3:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
@@ -2480,27 +2490,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="57" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="57" customWidth="1"/>
     <col min="4" max="4" width="17" style="53" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28">
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2523,7 +2533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="38"/>
@@ -2532,9 +2542,9 @@
       <c r="F2" s="20"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1">
-      <c r="A3" s="22" t="s">
-        <v>93</v>
+    <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>88</v>
@@ -2555,9 +2565,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1">
-      <c r="A4" s="26" t="s">
-        <v>93</v>
+    <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>88</v>
@@ -2578,9 +2588,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1">
-      <c r="A5" s="26" t="s">
-        <v>93</v>
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>88</v>
@@ -2605,9 +2615,9 @@
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1">
-      <c r="A6" s="26" t="s">
-        <v>93</v>
+    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>88</v>
@@ -2628,7 +2638,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1">
+    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="27"/>
       <c r="C7" s="56"/>
@@ -2637,9 +2647,9 @@
       <c r="F7" s="25"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1">
+    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>88</v>
@@ -2660,9 +2670,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1">
+    <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>88</v>
@@ -2681,9 +2691,9 @@
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1">
+    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>88</v>
@@ -2702,9 +2712,9 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1">
+    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>88</v>
@@ -2723,9 +2733,9 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1">
+    <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>88</v>
@@ -2744,9 +2754,9 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1">
+    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>88</v>
@@ -2765,9 +2775,9 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1">
+    <row r="14" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>88</v>
@@ -2786,9 +2796,9 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1">
+    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>88</v>
@@ -2807,7 +2817,7 @@
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1">
+    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="27"/>
       <c r="C16" s="56"/>
@@ -2816,8 +2826,8 @@
       <c r="F16" s="25"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -2839,9 +2849,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1">
-      <c r="A18" s="26" t="s">
-        <v>95</v>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>88</v>
@@ -2862,7 +2872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="27"/>
       <c r="C19" s="56"/>
@@ -2871,8 +2881,8 @@
       <c r="F19" s="25"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -2894,7 +2904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>96</v>
       </c>
@@ -2917,7 +2927,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>96</v>
       </c>
@@ -2940,7 +2950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>96</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>96</v>
       </c>
@@ -2986,7 +2996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>96</v>
       </c>
@@ -3009,7 +3019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>96</v>
       </c>
@@ -3032,7 +3042,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="27"/>
       <c r="C27" s="56"/>
@@ -3041,8 +3051,8 @@
       <c r="F27" s="25"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -3062,7 +3072,7 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>97</v>
       </c>
@@ -3083,7 +3093,7 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>97</v>
       </c>
@@ -3104,7 +3114,7 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="27"/>
       <c r="C31" s="56"/>
@@ -3113,8 +3123,8 @@
       <c r="F31" s="25"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -3136,7 +3146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>98</v>
       </c>
@@ -3159,7 +3169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1">
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>98</v>
       </c>
@@ -3182,7 +3192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>98</v>
       </c>
@@ -3205,7 +3215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>98</v>
       </c>
@@ -3228,7 +3238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1">
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>98</v>
       </c>
@@ -3251,7 +3261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1">
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>98</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>98</v>
       </c>
@@ -3297,7 +3307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1">
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>98</v>
       </c>
@@ -3320,7 +3330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>98</v>
       </c>
@@ -3343,7 +3353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1">
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="56"/>
@@ -3352,8 +3362,8 @@
       <c r="F42" s="25"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -3375,7 +3385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1">
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>99</v>
       </c>
@@ -3398,7 +3408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1">
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="27"/>
       <c r="C45" s="56"/>
@@ -3407,8 +3417,8 @@
       <c r="F45" s="25"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -3428,7 +3438,7 @@
       </c>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1">
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>100</v>
       </c>
@@ -3449,7 +3459,7 @@
       </c>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1">
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>100</v>
       </c>
@@ -3470,7 +3480,7 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7" s="13" customFormat="1">
+    <row r="49" spans="1:7" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="55"/>
@@ -3479,9 +3489,9 @@
       <c r="F49" s="33"/>
       <c r="G49" s="32"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>88</v>
@@ -3496,19 +3506,19 @@
       <c r="F50" s="35"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1">
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="57"/>
       <c r="D51" s="53"/>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1">
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="57"/>
       <c r="D52" s="53"/>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1">
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="57"/>
       <c r="D53" s="53"/>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1">
+    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="57"/>
       <c r="D54" s="53"/>
     </row>
@@ -3532,9 +3542,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.7306E-2</v>
       </c>
@@ -3638,7 +3648,7 @@
         <v>2.2003000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.1257999999999999E-2</v>
       </c>
@@ -3742,7 +3752,7 @@
         <v>1.6747000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.2599000000000001E-2</v>
       </c>
@@ -3846,7 +3856,7 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.3949999999999996E-3</v>
       </c>
@@ -3950,7 +3960,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.9880000000000002E-3</v>
       </c>
@@ -4054,7 +4064,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -4158,7 +4168,7 @@
         <v>-3.039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.038E-2</v>
       </c>
@@ -4262,7 +4272,7 @@
         <v>-4.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.0441000000000001E-2</v>
       </c>
@@ -4366,7 +4376,7 @@
         <v>-5.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -4470,7 +4480,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.7280000000000005E-3</v>
       </c>
@@ -4574,7 +4584,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.1170000000000001E-3</v>
       </c>
@@ -4678,7 +4688,7 @@
         <v>-5.104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -4782,7 +4792,7 @@
         <v>-4.7270000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.0409999999999995E-3</v>
       </c>
@@ -4886,7 +4896,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.1829999999999993E-3</v>
       </c>
@@ -4990,7 +5000,7 @@
         <v>-4.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.2159999999999993E-3</v>
       </c>
@@ -5094,7 +5104,7 @@
         <v>-4.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.6169999999999996E-3</v>
       </c>
@@ -5198,7 +5208,7 @@
         <v>-4.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.7520000000000002E-3</v>
       </c>
@@ -5302,7 +5312,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.0699999999999999E-3</v>
       </c>
@@ -5406,7 +5416,7 @@
         <v>-4.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.8310000000000003E-3</v>
       </c>
@@ -5510,7 +5520,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6.4079999999999996E-3</v>
       </c>
@@ -5614,7 +5624,7 @@
         <v>-4.2430000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.4419999999999998E-3</v>
       </c>
@@ -5718,7 +5728,7 @@
         <v>-4.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.2509999999999996E-3</v>
       </c>
@@ -5822,7 +5832,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.1939999999999999E-3</v>
       </c>
@@ -5926,7 +5936,7 @@
         <v>-3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.6759999999999996E-3</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>-3.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.3439999999999998E-3</v>
       </c>
@@ -6134,7 +6144,7 @@
         <v>-3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.2090000000000001E-3</v>
       </c>
@@ -6238,7 +6248,7 @@
         <v>-3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.9170000000000004E-3</v>
       </c>
@@ -6342,7 +6352,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.7239999999999999E-3</v>
       </c>
@@ -6446,7 +6456,7 @@
         <v>-3.392E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.0660000000000002E-3</v>
       </c>
@@ -6550,7 +6560,7 @@
         <v>-3.2490000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -6654,7 +6664,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.777E-3</v>
       </c>
@@ -6758,7 +6768,7 @@
         <v>-3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.607E-3</v>
       </c>
@@ -6862,7 +6872,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.2729999999999999E-3</v>
       </c>
@@ -6966,7 +6976,7 @@
         <v>-2.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.0950000000000001E-3</v>
       </c>
@@ -7070,7 +7080,7 @@
         <v>-2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.0699999999999998E-3</v>
       </c>
@@ -7174,7 +7184,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.0349999999999999E-3</v>
       </c>
@@ -7278,7 +7288,7 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -7382,7 +7392,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -7486,7 +7496,7 @@
         <v>-1.129E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.0019999999999999E-3</v>
       </c>
@@ -7590,7 +7600,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.911E-3</v>
       </c>
@@ -7694,7 +7704,7 @@
         <v>-9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.9169999999999999E-3</v>
       </c>
@@ -7798,7 +7808,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.4870000000000001E-3</v>
       </c>
@@ -7902,7 +7912,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.565E-3</v>
       </c>
@@ -8006,7 +8016,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.1519999999999998E-3</v>
       </c>
@@ -8110,7 +8120,7 @@
         <v>-9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.918E-3</v>
       </c>
@@ -8214,7 +8224,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -8318,7 +8328,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.3509999999999998E-3</v>
       </c>
@@ -8422,7 +8432,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.6870000000000002E-3</v>
       </c>
@@ -8526,7 +8536,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2.7929999999999999E-3</v>
       </c>
@@ -8630,7 +8640,7 @@
         <v>-3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.7260000000000001E-3</v>
       </c>
@@ -8734,7 +8744,7 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.859E-3</v>
       </c>
@@ -8838,7 +8848,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.8110000000000001E-3</v>
       </c>
@@ -8942,7 +8952,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2.5959999999999998E-3</v>
       </c>
@@ -9046,7 +9056,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2.3879999999999999E-3</v>
       </c>
@@ -9150,7 +9160,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.1250000000000002E-3</v>
       </c>
@@ -9254,7 +9264,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.838E-3</v>
       </c>
@@ -9358,7 +9368,7 @@
         <v>-7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.5709999999999999E-3</v>
       </c>
@@ -9462,7 +9472,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.358E-3</v>
       </c>
@@ -9566,7 +9576,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.088E-3</v>
       </c>
@@ -9670,7 +9680,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8.8999999999999995E-4</v>
       </c>
@@ -9774,7 +9784,7 @@
         <v>-9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.75E-4</v>
       </c>
@@ -9878,7 +9888,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -9982,7 +9992,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.23E-4</v>
       </c>
@@ -10086,7 +10096,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-2.13E-4</v>
       </c>
@@ -10190,7 +10200,7 @@
         <v>-1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-3.5300000000000002E-4</v>
       </c>
@@ -10294,7 +10304,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-6.9099999999999999E-4</v>
       </c>
@@ -10398,7 +10408,7 @@
         <v>-1.371E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-6.6200000000000005E-4</v>
       </c>
@@ -10502,7 +10512,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.6600000000000002E-4</v>
       </c>
@@ -10606,7 +10616,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-9.8299999999999993E-4</v>
       </c>
@@ -10710,7 +10720,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.134E-3</v>
       </c>
@@ -10814,7 +10824,7 @@
         <v>-1.578E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-1.106E-3</v>
       </c>
@@ -10918,7 +10928,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.542E-3</v>
       </c>
@@ -11022,7 +11032,7 @@
         <v>-1.5120000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-1.658E-3</v>
       </c>
@@ -11126,7 +11136,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -11230,7 +11240,7 @@
         <v>-1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.9610000000000001E-3</v>
       </c>
@@ -11334,7 +11344,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.92E-3</v>
       </c>
@@ -11438,7 +11448,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.1649999999999998E-3</v>
       </c>
@@ -11542,7 +11552,7 @@
         <v>-5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-2.274E-3</v>
       </c>
@@ -11646,7 +11656,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-2.4229999999999998E-3</v>
       </c>
@@ -11750,7 +11760,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -11854,7 +11864,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-2.5490000000000001E-3</v>
       </c>
@@ -11958,7 +11968,7 @@
         <v>2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-2.5799999999999998E-3</v>
       </c>
@@ -12062,7 +12072,7 @@
         <v>4.5600000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-2.421E-3</v>
       </c>
@@ -12166,7 +12176,7 @@
         <v>4.3100000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-2.4420000000000002E-3</v>
       </c>
@@ -12270,7 +12280,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-2.117E-3</v>
       </c>
@@ -12374,7 +12384,7 @@
         <v>4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.3029999999999999E-3</v>
       </c>
@@ -12496,9 +12506,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2.818E-2</v>
       </c>
@@ -12602,7 +12612,7 @@
         <v>-1.3003000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.9113999999999999E-2</v>
       </c>
@@ -12706,7 +12716,7 @@
         <v>-1.0573000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.0387E-2</v>
       </c>
@@ -12810,7 +12820,7 @@
         <v>-9.0050000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.8069999999999997E-3</v>
       </c>
@@ -12914,7 +12924,7 @@
         <v>-8.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.4920000000000004E-3</v>
       </c>
@@ -13018,7 +13028,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.483E-3</v>
       </c>
@@ -13122,7 +13132,7 @@
         <v>-5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.4060000000000002E-3</v>
       </c>
@@ -13226,7 +13236,7 @@
         <v>-4.2729999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.4300000000000001E-3</v>
       </c>
@@ -13330,7 +13340,7 @@
         <v>-3.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.129E-3</v>
       </c>
@@ -13434,7 +13444,7 @@
         <v>-2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.812E-3</v>
       </c>
@@ -13538,7 +13548,7 @@
         <v>-1.8680000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.7070000000000002E-3</v>
       </c>
@@ -13642,7 +13652,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.6169999999999996E-3</v>
       </c>
@@ -13746,7 +13756,7 @@
         <v>-7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -13850,7 +13860,7 @@
         <v>-5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-5.3109999999999997E-3</v>
       </c>
@@ -13954,7 +13964,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.7479999999999997E-3</v>
       </c>
@@ -14058,7 +14068,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.149E-3</v>
       </c>
@@ -14162,7 +14172,7 @@
         <v>1.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.437E-3</v>
       </c>
@@ -14266,7 +14276,7 @@
         <v>1.7589999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-7.2789999999999999E-3</v>
       </c>
@@ -14370,7 +14380,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-7.6649999999999999E-3</v>
       </c>
@@ -14474,7 +14484,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -14578,7 +14588,7 @@
         <v>2.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-9.3799999999999994E-3</v>
       </c>
@@ -14682,7 +14692,7 @@
         <v>2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-9.2580000000000006E-3</v>
       </c>
@@ -14786,7 +14796,7 @@
         <v>2.8349999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.0026E-2</v>
       </c>
@@ -14890,7 +14900,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.0159E-2</v>
       </c>
@@ -14994,7 +15004,7 @@
         <v>2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-9.9780000000000008E-3</v>
       </c>
@@ -15098,7 +15108,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.0371E-2</v>
       </c>
@@ -15202,7 +15212,7 @@
         <v>2.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -15306,7 +15316,7 @@
         <v>2.8119999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.0642E-2</v>
       </c>
@@ -15410,7 +15420,7 @@
         <v>2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.0969E-2</v>
       </c>
@@ -15514,7 +15524,7 @@
         <v>2.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.1292E-2</v>
       </c>
@@ -15618,7 +15628,7 @@
         <v>2.771E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.0963000000000001E-2</v>
       </c>
@@ -15722,7 +15732,7 @@
         <v>2.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.1731999999999999E-2</v>
       </c>
@@ -15826,7 +15836,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.1818E-2</v>
       </c>
@@ -15930,7 +15940,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.2111E-2</v>
       </c>
@@ -16034,7 +16044,7 @@
         <v>2.212E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.2655E-2</v>
       </c>
@@ -16138,7 +16148,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.2838E-2</v>
       </c>
@@ -16242,7 +16252,7 @@
         <v>2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.2978999999999999E-2</v>
       </c>
@@ -16346,7 +16356,7 @@
         <v>2.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.304E-2</v>
       </c>
@@ -16450,7 +16460,7 @@
         <v>2.0609999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.2704999999999999E-2</v>
       </c>
@@ -16554,7 +16564,7 @@
         <v>2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.2663000000000001E-2</v>
       </c>
@@ -16658,7 +16668,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.2364999999999999E-2</v>
       </c>
@@ -16762,7 +16772,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.2322E-2</v>
       </c>
@@ -16866,7 +16876,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1.1955E-2</v>
       </c>
@@ -16970,7 +16980,7 @@
         <v>2.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.2149E-2</v>
       </c>
@@ -17074,7 +17084,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-7.4850000000000003E-3</v>
       </c>
@@ -17178,7 +17188,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -17282,7 +17292,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-7.123E-3</v>
       </c>
@@ -17386,7 +17396,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-6.8180000000000003E-3</v>
       </c>
@@ -17490,7 +17500,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-6.8339999999999998E-3</v>
       </c>
@@ -17594,7 +17604,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-6.881E-3</v>
       </c>
@@ -17698,7 +17708,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-6.9410000000000001E-3</v>
       </c>
@@ -17802,7 +17812,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-7.0809999999999996E-3</v>
       </c>
@@ -17906,7 +17916,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-7.2399999999999999E-3</v>
       </c>
@@ -18010,7 +18020,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18114,7 +18124,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-7.6220000000000003E-3</v>
       </c>
@@ -18218,7 +18228,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-7.8150000000000008E-3</v>
       </c>
@@ -18322,7 +18332,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-8.0059999999999992E-3</v>
       </c>
@@ -18426,7 +18436,7 @@
         <v>1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-8.1650000000000004E-3</v>
       </c>
@@ -18530,7 +18540,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-8.2880000000000002E-3</v>
       </c>
@@ -18634,7 +18644,7 @@
         <v>1.784E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-8.456E-3</v>
       </c>
@@ -18738,7 +18748,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-8.6499999999999997E-3</v>
       </c>
@@ -18842,7 +18852,7 @@
         <v>1.897E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-8.6359999999999996E-3</v>
       </c>
@@ -18946,7 +18956,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-8.2819999999999994E-3</v>
       </c>
@@ -19050,7 +19060,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-8.7810000000000006E-3</v>
       </c>
@@ -19154,7 +19164,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-8.659E-3</v>
       </c>
@@ -19258,7 +19268,7 @@
         <v>1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-8.5939999999999992E-3</v>
       </c>
@@ -19362,7 +19372,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-8.9849999999999999E-3</v>
       </c>
@@ -19466,7 +19476,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.744E-3</v>
       </c>
@@ -19570,7 +19580,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -19674,7 +19684,7 @@
         <v>1.913E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-8.9890000000000005E-3</v>
       </c>
@@ -19778,7 +19788,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-9.1999999999999998E-3</v>
       </c>
@@ -19882,7 +19892,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-9.391E-3</v>
       </c>
@@ -19986,7 +19996,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -20090,7 +20100,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-9.5189999999999997E-3</v>
       </c>
@@ -20194,7 +20204,7 @@
         <v>1.614E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-9.5060000000000006E-3</v>
       </c>
@@ -20298,7 +20308,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-9.6299999999999997E-3</v>
       </c>
@@ -20402,7 +20412,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-9.3120000000000008E-3</v>
       </c>
@@ -20506,7 +20516,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-9.6340000000000002E-3</v>
       </c>
@@ -20610,7 +20620,7 @@
         <v>1.4059999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-9.502E-3</v>
       </c>
@@ -20714,7 +20724,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-9.3539999999999995E-3</v>
       </c>
@@ -20818,7 +20828,7 @@
         <v>1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-9.4149999999999998E-3</v>
       </c>
@@ -20922,7 +20932,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -21026,7 +21036,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-8.7790000000000003E-3</v>
       </c>
@@ -21130,7 +21140,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-8.6960000000000006E-3</v>
       </c>
@@ -21234,7 +21244,7 @@
         <v>1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-8.8369999999999994E-3</v>
       </c>
@@ -21338,7 +21348,7 @@
         <v>1.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.0132000000000001E-2</v>
       </c>
